--- a/data/trans_orig/CUI_GLOB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Edad-trans_orig.xlsx
@@ -754,7 +754,7 @@
         <v>11772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6173</v>
+        <v>5783</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>14837</v>
@@ -763,7 +763,7 @@
         <v>0.7934003692350251</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.416081963848041</v>
+        <v>0.3897857942434843</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -775,16 +775,16 @@
         <v>17909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11450</v>
+        <v>10333</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>20974</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8538521860401804</v>
+        <v>0.8538521860401802</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5459271080447866</v>
+        <v>0.492658525002509</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8664</v>
+        <v>9054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2065996307649749</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.583918036151959</v>
+        <v>0.6102142057565159</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9524</v>
+        <v>10641</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1461478139598196</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4540728919552129</v>
+        <v>0.5073414749974912</v>
       </c>
     </row>
     <row r="6">
@@ -989,19 +989,19 @@
         <v>17710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8873</v>
+        <v>8819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25509</v>
+        <v>25642</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5737926307587355</v>
+        <v>0.5737926307587354</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2874749386231372</v>
+        <v>0.2857315509063179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8264903227997079</v>
+        <v>0.8308104072670575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1010,19 +1010,19 @@
         <v>6655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2461</v>
+        <v>2728</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12192</v>
+        <v>12601</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2703280308693502</v>
+        <v>0.2703280308693501</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.099973152332843</v>
+        <v>0.1108327546959535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.495257720377512</v>
+        <v>0.5118934498374289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1031,19 +1031,19 @@
         <v>24364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15012</v>
+        <v>15025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34131</v>
+        <v>34746</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4391452152039111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2705832145019084</v>
+        <v>0.2708046318449398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6151845942384325</v>
+        <v>0.6262643926780564</v>
       </c>
     </row>
     <row r="9">
@@ -1060,19 +1060,19 @@
         <v>7070</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1433</v>
+        <v>1556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16148</v>
+        <v>17245</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2290566656904139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04642333153975856</v>
+        <v>0.05042012079543962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5232104761290419</v>
+        <v>0.5587523336320381</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1081,19 +1081,19 @@
         <v>9761</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4980</v>
+        <v>4506</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15326</v>
+        <v>15313</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3964948179217894</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2022911035578793</v>
+        <v>0.1830246493985184</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.622559819315495</v>
+        <v>0.6220656497208717</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1102,19 +1102,19 @@
         <v>16830</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8861</v>
+        <v>8551</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28352</v>
+        <v>27599</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.303349069059531</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1597181485554546</v>
+        <v>0.1541267248389335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5110254818289189</v>
+        <v>0.4974511971549561</v>
       </c>
     </row>
     <row r="10">
@@ -1131,19 +1131,19 @@
         <v>6085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1172</v>
+        <v>1247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15243</v>
+        <v>15911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1971507035508507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03796791372599083</v>
+        <v>0.04040730838008558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4938636306361514</v>
+        <v>0.5155166311805905</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1152,19 +1152,19 @@
         <v>8202</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3615</v>
+        <v>3730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13501</v>
+        <v>13951</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3331771512088605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1468560643746288</v>
+        <v>0.1515119396092977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5484335157688277</v>
+        <v>0.5667316460332875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1173,19 +1173,19 @@
         <v>14287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6884</v>
+        <v>7285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24279</v>
+        <v>24666</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2575057157365579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1240712437344561</v>
+        <v>0.1312977563470109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4376107942529881</v>
+        <v>0.44457778815646</v>
       </c>
     </row>
     <row r="11">
@@ -1277,19 +1277,19 @@
         <v>13998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8287</v>
+        <v>8454</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19993</v>
+        <v>19855</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4823738289751481</v>
+        <v>0.4823738289751482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2855562612059219</v>
+        <v>0.2913127410001214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6889272990534152</v>
+        <v>0.6841990027192792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1298,19 +1298,19 @@
         <v>11650</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7270</v>
+        <v>7300</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16427</v>
+        <v>16448</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3345953254178804</v>
+        <v>0.3345953254178803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2088084553301146</v>
+        <v>0.2096553626914456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4717954046942006</v>
+        <v>0.4724095393694006</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -1319,19 +1319,19 @@
         <v>25648</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18607</v>
+        <v>18772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33701</v>
+        <v>33783</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4017732807597764</v>
+        <v>0.4017732807597763</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2914724278327022</v>
+        <v>0.2940645580540158</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5279213718912305</v>
+        <v>0.5291967590481552</v>
       </c>
     </row>
     <row r="13">
@@ -1348,19 +1348,19 @@
         <v>5290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1543</v>
+        <v>1845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10582</v>
+        <v>10351</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1822979458291178</v>
+        <v>0.1822979458291179</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05318708350052144</v>
+        <v>0.06357570618269333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3646483640547242</v>
+        <v>0.3566995181106489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1369,19 +1369,19 @@
         <v>13881</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9245</v>
+        <v>9121</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19073</v>
+        <v>19002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3986731314209887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2655272737756517</v>
+        <v>0.2619664622888358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5477964297977538</v>
+        <v>0.5457399946581161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1390,19 +1390,19 @@
         <v>19171</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13019</v>
+        <v>13285</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26176</v>
+        <v>27186</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3003121235281714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2039319311306765</v>
+        <v>0.2080988887281228</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4100445537633575</v>
+        <v>0.4258598777515563</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>9731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4780</v>
+        <v>4875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15908</v>
+        <v>16072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3353282251957341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1647141441442714</v>
+        <v>0.1679971612382123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5481769897761162</v>
+        <v>0.5538392030329633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1440,19 +1440,19 @@
         <v>9287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5349</v>
+        <v>5452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14073</v>
+        <v>14480</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2667315431611309</v>
+        <v>0.2667315431611308</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1536402721948152</v>
+        <v>0.1565958738015313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4041987533021958</v>
+        <v>0.4158761575470991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1461,19 +1461,19 @@
         <v>19018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12928</v>
+        <v>12149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26414</v>
+        <v>27029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2979145957120523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2025192172782599</v>
+        <v>0.190313003049938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4137681790597207</v>
+        <v>0.4233941879592213</v>
       </c>
     </row>
     <row r="15">
@@ -1565,19 +1565,19 @@
         <v>34645</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26174</v>
+        <v>26185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43127</v>
+        <v>42643</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.540392089438652</v>
+        <v>0.5403920894386522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4082568991612661</v>
+        <v>0.4084301627478322</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6726966442382314</v>
+        <v>0.6651409558520839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1586,19 +1586,19 @@
         <v>20635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15399</v>
+        <v>15052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26838</v>
+        <v>26959</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3413833872857323</v>
+        <v>0.3413833872857322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2547562940131431</v>
+        <v>0.2490261992660187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4440149535470688</v>
+        <v>0.4460146381086389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1607,19 +1607,19 @@
         <v>55280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44952</v>
+        <v>44885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65677</v>
+        <v>66010</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4438164446112696</v>
+        <v>0.4438164446112697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3608984748192928</v>
+        <v>0.3603585126197019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5272913291237535</v>
+        <v>0.5299584863669792</v>
       </c>
     </row>
     <row r="17">
@@ -1636,19 +1636,19 @@
         <v>14101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8030</v>
+        <v>8041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22131</v>
+        <v>22314</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2199486289057818</v>
+        <v>0.2199486289057819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1252507343133981</v>
+        <v>0.1254217083507672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3452038710720891</v>
+        <v>0.3480506550240637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1657,19 +1657,19 @@
         <v>10962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6880</v>
+        <v>6970</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16234</v>
+        <v>16307</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1813583033932369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1138244950221366</v>
+        <v>0.1153135534006373</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2685741759221116</v>
+        <v>0.2697781575812594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1678,19 +1678,19 @@
         <v>25063</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17387</v>
+        <v>17385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34617</v>
+        <v>35196</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2012213796440443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.139595007710349</v>
+        <v>0.1395791184069889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2779237868193137</v>
+        <v>0.2825682776940265</v>
       </c>
     </row>
     <row r="18">
@@ -1707,19 +1707,19 @@
         <v>15365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9164</v>
+        <v>9668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22414</v>
+        <v>23591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.239659281655566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1429469748136568</v>
+        <v>0.1508021789846295</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3496069599528245</v>
+        <v>0.3679741232879983</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -1728,19 +1728,19 @@
         <v>28848</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22681</v>
+        <v>22409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35022</v>
+        <v>35081</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4772583093210309</v>
+        <v>0.4772583093210308</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3752287170179456</v>
+        <v>0.370734777818558</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5793959224989046</v>
+        <v>0.5803870759355223</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -1749,19 +1749,19 @@
         <v>44213</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34722</v>
+        <v>35035</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54236</v>
+        <v>54026</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.354962175744686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2787656663019171</v>
+        <v>0.2812821789205268</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4354308327298251</v>
+        <v>0.4337457680417896</v>
       </c>
     </row>
     <row r="19">
@@ -1853,19 +1853,19 @@
         <v>32948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25966</v>
+        <v>25985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40236</v>
+        <v>40802</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5406520672755388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4260847752279608</v>
+        <v>0.4263891638697097</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6602323000533774</v>
+        <v>0.6695201621533039</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -1874,19 +1874,19 @@
         <v>27243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21279</v>
+        <v>21140</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33903</v>
+        <v>33728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3852406076834591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.300904367810026</v>
+        <v>0.2989382349434846</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4794172345584564</v>
+        <v>0.4769374100239021</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -1895,19 +1895,19 @@
         <v>60192</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51139</v>
+        <v>50465</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70383</v>
+        <v>70382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4571765999922052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.388416463048871</v>
+        <v>0.3832976252457534</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5345824532363801</v>
+        <v>0.5345719218100362</v>
       </c>
     </row>
     <row r="21">
@@ -1924,19 +1924,19 @@
         <v>14190</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8700</v>
+        <v>8190</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20911</v>
+        <v>20479</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2328449469356863</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1427523559751819</v>
+        <v>0.1343862955226347</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.343123522111986</v>
+        <v>0.3360418487547399</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -1945,19 +1945,19 @@
         <v>10519</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6075</v>
+        <v>6103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15596</v>
+        <v>15650</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1487522379203741</v>
+        <v>0.1487522379203742</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08590375445293974</v>
+        <v>0.08630592928038748</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2205323503539144</v>
+        <v>0.2213085055161378</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1966,19 +1966,19 @@
         <v>24710</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17482</v>
+        <v>17668</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33247</v>
+        <v>32687</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1876766035033573</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1327821050615157</v>
+        <v>0.1341909563084069</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2525245901679694</v>
+        <v>0.2482707093040276</v>
       </c>
     </row>
     <row r="22">
@@ -1995,19 +1995,19 @@
         <v>13804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8070</v>
+        <v>7970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20790</v>
+        <v>20554</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2265029857887749</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.132427542772922</v>
+        <v>0.130787483252186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3411383833699737</v>
+        <v>0.3372651092662505</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2016,19 +2016,19 @@
         <v>32955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26875</v>
+        <v>26237</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39608</v>
+        <v>39333</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4660071543961667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.380036716467107</v>
+        <v>0.3710082643412709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5600884193303869</v>
+        <v>0.5561883020859876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2037,19 +2037,19 @@
         <v>46759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38198</v>
+        <v>38153</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56792</v>
+        <v>56537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3551467965044376</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2901259620831707</v>
+        <v>0.2897850456084477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4313559703520278</v>
+        <v>0.4294162860080143</v>
       </c>
     </row>
     <row r="23">
@@ -2141,19 +2141,19 @@
         <v>29474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23803</v>
+        <v>23932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34188</v>
+        <v>34654</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6582244647565708</v>
+        <v>0.6582244647565707</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5315860605227178</v>
+        <v>0.5344562848851592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7634959103635993</v>
+        <v>0.7739114860745643</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -2162,19 +2162,19 @@
         <v>41465</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35535</v>
+        <v>35195</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47393</v>
+        <v>47130</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.594844871038269</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5097679872045993</v>
+        <v>0.504888120331371</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6798848762943354</v>
+        <v>0.6761021708624658</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -2183,19 +2183,19 @@
         <v>70939</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63043</v>
+        <v>62524</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78600</v>
+        <v>78342</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6196339967850878</v>
+        <v>0.6196339967850877</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5506578610506658</v>
+        <v>0.5461286840102847</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6865457208251455</v>
+        <v>0.6842948033619466</v>
       </c>
     </row>
     <row r="25">
@@ -2212,19 +2212,19 @@
         <v>8219</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4063</v>
+        <v>4206</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12582</v>
+        <v>13098</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1835452331569642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09074411353537212</v>
+        <v>0.09392792249421181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2809852774922194</v>
+        <v>0.2925096544940116</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2233,19 +2233,19 @@
         <v>8722</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5244</v>
+        <v>5306</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13198</v>
+        <v>13183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.125123357781562</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07522545678392446</v>
+        <v>0.07612128768606582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1893265993887972</v>
+        <v>0.1891239815641959</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2254,19 +2254,19 @@
         <v>16941</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11311</v>
+        <v>11724</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23018</v>
+        <v>23723</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1479734129820205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09879961963091652</v>
+        <v>0.1024089126018204</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2010559551272642</v>
+        <v>0.2072165589727669</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>7085</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3734</v>
+        <v>3682</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11753</v>
+        <v>12248</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1582303020864651</v>
+        <v>0.158230302086465</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08338956440830124</v>
+        <v>0.08223114679681506</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2624706305995141</v>
+        <v>0.2735247124163386</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -2304,19 +2304,19 @@
         <v>19520</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14309</v>
+        <v>14859</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25159</v>
+        <v>25213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2800317711801691</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2052699394774548</v>
+        <v>0.2131553130583062</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3609203833042521</v>
+        <v>0.361693049902755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>47</v>
@@ -2325,19 +2325,19 @@
         <v>26606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20331</v>
+        <v>20357</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34663</v>
+        <v>33882</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2323925902328917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1775888481445861</v>
+        <v>0.1778136022454406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.302772778296941</v>
+        <v>0.295951603496506</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>67412</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60474</v>
+        <v>60450</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73157</v>
+        <v>72856</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7706398499560769</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6913183844520142</v>
+        <v>0.6910492061292864</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8363141866863035</v>
+        <v>0.8328634893827026</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>324</v>
@@ -2450,19 +2450,19 @@
         <v>167052</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158263</v>
+        <v>158884</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>173815</v>
+        <v>174444</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8421937776263865</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7978849011540122</v>
+        <v>0.8010182024407994</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8762932726192428</v>
+        <v>0.8794620785659982</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>433</v>
@@ -2471,19 +2471,19 @@
         <v>234464</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>224199</v>
+        <v>223437</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>244917</v>
+        <v>243844</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8202952175448418</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7843830877258557</v>
+        <v>0.7817171322468695</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8568662743951199</v>
+        <v>0.8531103280770462</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>14394</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9484</v>
+        <v>9411</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21369</v>
+        <v>20998</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1645469791815744</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1084231152486022</v>
+        <v>0.1075817405471891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2442793719888552</v>
+        <v>0.2400386346408133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2521,19 +2521,19 @@
         <v>13484</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9242</v>
+        <v>8682</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19587</v>
+        <v>20085</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0679798485026039</v>
+        <v>0.06797984850260388</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0465917981161075</v>
+        <v>0.04376804194291113</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09874739177282435</v>
+        <v>0.1012582742324339</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -2542,19 +2542,19 @@
         <v>27878</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21465</v>
+        <v>20361</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37118</v>
+        <v>36594</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09753351776894212</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07509778591720291</v>
+        <v>0.07123656227507548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1298612943992511</v>
+        <v>0.1280270389661845</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>5670</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2644</v>
+        <v>2727</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10324</v>
+        <v>10328</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06481317086234874</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.030230044999129</v>
+        <v>0.03117252969504441</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1180221707332366</v>
+        <v>0.1180705618227998</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2592,19 +2592,19 @@
         <v>17817</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12705</v>
+        <v>12068</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26700</v>
+        <v>24011</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08982637387100956</v>
+        <v>0.08982637387100957</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0640502104585155</v>
+        <v>0.0608405038319661</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1346061026132127</v>
+        <v>0.1210526249078301</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -2613,19 +2613,19 @@
         <v>23487</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16749</v>
+        <v>16897</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30975</v>
+        <v>31432</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08217126468621609</v>
+        <v>0.08217126468621608</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.058597058979838</v>
+        <v>0.05911552928109836</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1083703594169531</v>
+        <v>0.1099675629011521</v>
       </c>
     </row>
     <row r="31">
@@ -2717,19 +2717,19 @@
         <v>202325</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>183785</v>
+        <v>184380</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>218186</v>
+        <v>219518</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.625757670110876</v>
+        <v>0.6257576701108759</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5684166571343967</v>
+        <v>0.5702573418365061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6748139081191932</v>
+        <v>0.6789327703707468</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>504</v>
@@ -2738,19 +2738,19 @@
         <v>286472</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267528</v>
+        <v>269323</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>305138</v>
+        <v>303470</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6050140522294998</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5650065264885323</v>
+        <v>0.5687975878424884</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6444368257573493</v>
+        <v>0.6409145689365598</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>747</v>
@@ -2759,19 +2759,19 @@
         <v>488797</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>464381</v>
+        <v>462805</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>514095</v>
+        <v>513832</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6134312044840989</v>
+        <v>0.6134312044840988</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5827895490536457</v>
+        <v>0.5808118052651634</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6451806488846287</v>
+        <v>0.6448504149926885</v>
       </c>
     </row>
     <row r="33">
@@ -2788,19 +2788,19 @@
         <v>63264</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>50095</v>
+        <v>50025</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>81557</v>
+        <v>77783</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1956643521795515</v>
+        <v>0.1956643521795514</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1549340881995914</v>
+        <v>0.1547200438038029</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2522434741588888</v>
+        <v>0.2405698073847359</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>101</v>
@@ -2809,19 +2809,19 @@
         <v>70395</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>58059</v>
+        <v>58903</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>84694</v>
+        <v>85509</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1486698465898207</v>
+        <v>0.1486698465898208</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1226174628031345</v>
+        <v>0.1243994241074645</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1788695491584186</v>
+        <v>0.1805899125419122</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>169</v>
@@ -2830,19 +2830,19 @@
         <v>133658</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>114350</v>
+        <v>113328</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>154488</v>
+        <v>153278</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1677388398069349</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.143506995879964</v>
+        <v>0.1422242017153046</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1938798810677652</v>
+        <v>0.1923606226021487</v>
       </c>
     </row>
     <row r="34">
@@ -2859,19 +2859,19 @@
         <v>57739</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44610</v>
+        <v>43831</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>72805</v>
+        <v>72442</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1785779777095725</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.137971507982403</v>
+        <v>0.1355624505609156</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.225173736584579</v>
+        <v>0.2240512276767874</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>183</v>
@@ -2880,19 +2880,19 @@
         <v>116630</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101208</v>
+        <v>101461</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133015</v>
+        <v>132482</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2463161011806794</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2137467650220538</v>
+        <v>0.2142810570099743</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2809219463270196</v>
+        <v>0.2797961500991759</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -2901,19 +2901,19 @@
         <v>174369</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>154177</v>
+        <v>154580</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>195317</v>
+        <v>196486</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2188299557089662</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1934890021919756</v>
+        <v>0.1939957169627997</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2451193934224185</v>
+        <v>0.246586000434137</v>
       </c>
     </row>
     <row r="35">
